--- a/Corte de Apelaciones de Arica/1-2013303#4#1-C-ingresos-2021-11.xlsx
+++ b/Corte de Apelaciones de Arica/1-2013303#4#1-C-ingresos-2021-11.xlsx
@@ -49,10 +49,13 @@
     <t>Minero, Pedimento (Concesión De Exploración)</t>
   </si>
   <si>
+    <t>Minera, Manifestación (Concesión Para Explotación)</t>
+  </si>
+  <si>
     <t>Aguas, Derechos Aprovechamiento, C. Aguas</t>
   </si>
   <si>
-    <t>Minera, Manifestación (Concesión Para Explotación)</t>
+    <t>Pesca Y Acuicultura, Infracciones A La Ley De</t>
   </si>
   <si>
     <t>Nombre, Autorización Cambio De</t>
@@ -62,9 +65,6 @@
   </si>
   <si>
     <t>Factura, Notificación De</t>
-  </si>
-  <si>
-    <t>Pesca Y Acuicultura, Infracciones A La Ley De</t>
   </si>
   <si>
     <t>Medida Prejudicial Precautoria</t>
